--- a/resources/excel/kintai_template.xlsx
+++ b/resources/excel/kintai_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\docker\kintai\home\develop\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0218C05-3036-43CA-831F-5C6D38B01603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34E1D32-0C70-4986-A4B2-4F474F6DE9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,93 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>社員コード</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出勤</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務時間</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩①開始</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩①終了</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩②開始</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩②終了</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退勤</t>
-    <rPh sb="0" eb="2">
-      <t>タイキン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,44 +360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="1" s="1" customFormat="1" ht="18"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
